--- a/wxdgaming.game.basic/src/main/cfg/道具.xlsx
+++ b/wxdgaming.game.basic/src/main/cfg/道具.xlsx
@@ -394,12 +394,12 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="9"/>
       <name val="宋体"/>
       <charset val="134"/>
     </font>
     <font>
+      <b/>
       <sz val="9"/>
       <name val="宋体"/>
       <charset val="134"/>
@@ -1196,8 +1196,8 @@
   <sheetPr/>
   <dimension ref="A1:M17"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="F1" workbookViewId="0">
-      <selection activeCell="L20" sqref="L20"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A13" sqref="A13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5"/>
@@ -1396,7 +1396,7 @@
         <v>1</v>
       </c>
       <c r="C6" s="4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D6" s="4" t="s">
         <v>26</v>
@@ -1433,7 +1433,7 @@
         <v>1</v>
       </c>
       <c r="C7" s="4">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D7" s="4" t="s">
         <v>27</v>
@@ -1470,7 +1470,7 @@
         <v>1</v>
       </c>
       <c r="C8" s="4">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="D8" s="4" t="s">
         <v>28</v>
@@ -1507,7 +1507,7 @@
         <v>1</v>
       </c>
       <c r="C9" s="4">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="D9" s="4" t="s">
         <v>29</v>
@@ -1544,7 +1544,7 @@
         <v>1</v>
       </c>
       <c r="C10" s="4">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="D10" s="4" t="s">
         <v>30</v>

--- a/wxdgaming.game.basic/src/main/cfg/道具.xlsx
+++ b/wxdgaming.game.basic/src/main/cfg/道具.xlsx
@@ -105,7 +105,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="82" uniqueCount="40">
   <si>
     <t>任务集合</t>
   </si>
@@ -223,6 +223,9 @@
   </si>
   <si>
     <t>{"MAXHP":106,"体力":100,"攻击":10609,"防御":10666}</t>
+  </si>
+  <si>
+    <t>强化石</t>
   </si>
 </sst>
 </file>
@@ -394,12 +397,12 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="9"/>
       <name val="宋体"/>
       <charset val="134"/>
     </font>
     <font>
-      <b/>
       <sz val="9"/>
       <name val="宋体"/>
       <charset val="134"/>
@@ -1194,10 +1197,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:M17"/>
+  <dimension ref="A1:M18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A13" sqref="A13"/>
+      <selection activeCell="C21" sqref="C21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5"/>
@@ -1837,6 +1840,29 @@
       </c>
       <c r="L17" t="s">
         <v>38</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7">
+      <c r="A18" s="1">
+        <v>100001</v>
+      </c>
+      <c r="B18" s="1">
+        <v>10</v>
+      </c>
+      <c r="C18" s="1">
+        <v>0</v>
+      </c>
+      <c r="D18" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="E18" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="F18" s="1">
+        <v>0</v>
+      </c>
+      <c r="G18" s="1">
+        <v>99</v>
       </c>
     </row>
   </sheetData>

--- a/wxdgaming.game.basic/src/main/cfg/道具.xlsx
+++ b/wxdgaming.game.basic/src/main/cfg/道具.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:dbsheet="http://web.wps.cn/et/2021/dbsheet">
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="27945" windowHeight="12255"/>
+    <workbookView windowWidth="28800" windowHeight="12375"/>
   </bookViews>
   <sheets>
     <sheet name="q_item" sheetId="4" r:id="rId1"/>
@@ -105,7 +105,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="82" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="86" uniqueCount="41">
   <si>
     <t>任务集合</t>
   </si>
@@ -146,7 +146,10 @@
     <t>param4</t>
   </si>
   <si>
-    <t>attr</t>
+    <t>paramString1</t>
+  </si>
+  <si>
+    <t>paramString2</t>
   </si>
   <si>
     <t>int</t>
@@ -155,7 +158,7 @@
     <t>string</t>
   </si>
   <si>
-    <t>wxdgaming.game.bean.attr.AttrInfo</t>
+    <t>wxdgaming.boot2.core.lang.ConfigString</t>
   </si>
   <si>
     <t>主键id</t>
@@ -183,7 +186,7 @@
 </t>
   </si>
   <si>
-    <t>属性</t>
+    <t>参数</t>
   </si>
   <si>
     <t>钻石</t>
@@ -397,12 +400,12 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="9"/>
       <name val="宋体"/>
       <charset val="134"/>
     </font>
     <font>
+      <b/>
       <sz val="9"/>
       <name val="宋体"/>
       <charset val="134"/>
@@ -1199,8 +1202,8 @@
   <sheetPr/>
   <dimension ref="A1:M18"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C21" sqref="C21"/>
+    <sheetView tabSelected="1" topLeftCell="G1" workbookViewId="0">
+      <selection activeCell="M3" sqref="M3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5"/>
@@ -1272,7 +1275,9 @@
       <c r="L2" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="M2" s="3"/>
+      <c r="M2" s="3" t="s">
+        <v>1</v>
+      </c>
     </row>
     <row r="3" spans="1:13">
       <c r="A3" s="3" t="s">
@@ -1311,85 +1316,91 @@
       <c r="L3" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="M3" s="3"/>
+      <c r="M3" s="3" t="s">
+        <v>14</v>
+      </c>
     </row>
     <row r="4" spans="1:13">
       <c r="A4" s="3" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D4" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="E4" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="F4" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="E4" s="3" t="s">
+      <c r="G4" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="F4" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="G4" s="3" t="s">
-        <v>14</v>
-      </c>
       <c r="H4" s="3" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I4" s="3" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="J4" s="3" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="K4" s="3" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="L4" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="M4" s="3"/>
+        <v>17</v>
+      </c>
+      <c r="M4" s="5" t="s">
+        <v>17</v>
+      </c>
     </row>
     <row r="5" ht="42.75" spans="1:13">
       <c r="A5" s="3" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D5" s="3" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="E5" s="3" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="F5" s="3" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="G5" s="3" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="H5" s="3" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="I5" s="3" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="J5" s="3" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="K5" s="6" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="L5" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="M5" s="3"/>
+        <v>26</v>
+      </c>
+      <c r="M5" s="3" t="s">
+        <v>26</v>
+      </c>
     </row>
     <row r="6" spans="1:13">
       <c r="A6" s="4">
@@ -1402,10 +1413,10 @@
         <v>1</v>
       </c>
       <c r="D6" s="4" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="E6" s="4" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="F6" s="4">
         <v>0</v>
@@ -1439,10 +1450,10 @@
         <v>2</v>
       </c>
       <c r="D7" s="4" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="E7" s="4" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="F7" s="4">
         <v>0</v>
@@ -1476,10 +1487,10 @@
         <v>3</v>
       </c>
       <c r="D8" s="4" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="E8" s="4" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="F8" s="4">
         <v>0</v>
@@ -1513,10 +1524,10 @@
         <v>4</v>
       </c>
       <c r="D9" s="4" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="E9" s="4" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="F9" s="4">
         <v>0</v>
@@ -1550,10 +1561,10 @@
         <v>5</v>
       </c>
       <c r="D10" s="4" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="E10" s="4" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="F10" s="4">
         <v>0</v>
@@ -1587,10 +1598,10 @@
         <v>0</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="F11" s="1">
         <v>1</v>
@@ -1611,7 +1622,7 @@
         <v>1</v>
       </c>
       <c r="L11" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
     </row>
     <row r="12" spans="1:12">
@@ -1625,10 +1636,10 @@
         <v>0</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="E12" s="1" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="F12" s="1">
         <v>2</v>
@@ -1649,7 +1660,7 @@
         <v>1</v>
       </c>
       <c r="L12" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
     </row>
     <row r="13" spans="1:12">
@@ -1663,10 +1674,10 @@
         <v>0</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="E13" s="1" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="F13" s="1">
         <v>3</v>
@@ -1687,7 +1698,7 @@
         <v>1</v>
       </c>
       <c r="L13" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
     </row>
     <row r="14" spans="1:12">
@@ -1701,10 +1712,10 @@
         <v>0</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="E14" s="1" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="F14" s="1">
         <v>4</v>
@@ -1725,7 +1736,7 @@
         <v>1</v>
       </c>
       <c r="L14" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
     </row>
     <row r="15" spans="1:12">
@@ -1739,10 +1750,10 @@
         <v>0</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="E15" s="1" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="F15" s="1">
         <v>5</v>
@@ -1763,7 +1774,7 @@
         <v>1</v>
       </c>
       <c r="L15" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
     </row>
     <row r="16" spans="1:12">
@@ -1777,10 +1788,10 @@
         <v>0</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="E16" s="1" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="F16" s="1">
         <v>6</v>
@@ -1801,7 +1812,7 @@
         <v>1</v>
       </c>
       <c r="L16" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
     </row>
     <row r="17" spans="1:12">
@@ -1815,10 +1826,10 @@
         <v>0</v>
       </c>
       <c r="D17" s="1" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="E17" s="1" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="F17" s="1">
         <v>7</v>
@@ -1839,7 +1850,7 @@
         <v>1</v>
       </c>
       <c r="L17" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
     </row>
     <row r="18" spans="1:7">
@@ -1853,10 +1864,10 @@
         <v>0</v>
       </c>
       <c r="D18" s="1" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="E18" s="1" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="F18" s="1">
         <v>0</v>
